--- a/biology/Zoologie/Hemerobius/Hemerobius.xlsx
+++ b/biology/Zoologie/Hemerobius/Hemerobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hemerobius regroupe des insectes névroptères prédateurs de la famille des hémérobiidés, dont les larves et les adultes ont pour proies principalement les acariens, les cochenilles, les psylles, les pucerons, les thrips, les œufs de lépidoptères et d'aleurodes sur les arbres fruitiers, la vigne et les grandes cultures.
 Sur les autres projets Wikimedia :
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Référence Fauna Europaea : Hemerobius Linnaeus, 1758 (consulté le 15 mars 2023)</t>
         </is>
